--- a/ressources/index.xlsx
+++ b/ressources/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paolo\Documents\GitHub\Pas-olo.github.io\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05E54C9-92C5-4172-8003-A5E61A5B7A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C04CF8-8818-4EF2-B036-122A90A8D6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{B0D2FBFC-8627-46E3-9F6F-86CCE5A836D0}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>chez-fefe</t>
   </si>
   <si>
-    <t>A la table d'Antpone</t>
-  </si>
-  <si>
     <t>Vendredi - Dimanche</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>12h00-13h30 &amp; 19h00-20h30</t>
+  </si>
+  <si>
+    <t>A la table d'Antoine</t>
   </si>
 </sst>
 </file>
@@ -682,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F792FD2A-D997-4B9C-A94D-E19C0AFFAA1A}">
-  <dimension ref="A1:O162"/>
+  <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -700,13 +700,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="str">
         <f>"#### "&amp;B1</f>
-        <v>#### Pizza Val</v>
+        <v>#### A la table d'Antoine</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -737,11 +737,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B3&amp;" - "&amp;B4</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Vendredi - Dimanche - 12h00-14h00</v>
       </c>
       <c r="O3" s="6"/>
     </row>
@@ -750,11 +750,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B5</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Pizza, Sandwichs</v>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
       </c>
       <c r="O4" s="6"/>
     </row>
@@ -763,11 +763,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B6</f>
-        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
+        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
       </c>
       <c r="O5" s="6"/>
     </row>
@@ -776,11 +776,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B7&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/pizza-val/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/table-antoine/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O6" s="6"/>
     </row>
@@ -789,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="O7" s="6"/>
     </row>
@@ -885,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B15</f>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="str">
         <f>"#### "&amp;B19</f>
-        <v>#### Quercy Pizza</v>
+        <v>#### Birdy Nem Nem</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -981,11 +981,11 @@
         <v>2</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E21" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B21&amp;" - "&amp;B22</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mercredi - Dimanche - 12h00-14h00 &amp; 19h00-21h00</v>
       </c>
       <c r="O21" s="6"/>
     </row>
@@ -994,11 +994,11 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B23</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Pizza</v>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Asiatique</v>
       </c>
       <c r="O22" s="6"/>
     </row>
@@ -1007,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B24</f>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="E24" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B25&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/quercy-pizza/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/birdy/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O24" s="6"/>
     </row>
@@ -1033,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="O25" s="6"/>
     </row>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="str">
         <f>"#### "&amp;B28</f>
-        <v>#### Le Capharnaüm</v>
+        <v>#### Chez Féfé</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1103,11 +1103,11 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B30&amp;" - "&amp;B31</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à definir - à définir</v>
       </c>
       <c r="O30" s="6"/>
     </row>
@@ -1116,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B32</f>
@@ -1129,7 +1129,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B33</f>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E33" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B34&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/capharnaum/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/chez-fefe/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O33" s="6"/>
     </row>
@@ -1155,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O34" s="6"/>
     </row>
@@ -1188,13 +1188,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="str">
         <f>"#### "&amp;B37</f>
-        <v>#### Chez Féfé</v>
+        <v>#### Guinguette de la Plage</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1225,11 +1225,11 @@
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E39" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B39&amp;" - "&amp;B40</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à definir - à définir</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00 (Sauf Dimanche soir)</v>
       </c>
       <c r="O39" s="6"/>
     </row>
@@ -1238,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B41</f>
@@ -1251,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B42</f>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="E42" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B43&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/chez-fefe/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/guinguette-plage/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O42" s="6"/>
     </row>
@@ -1277,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="O43" s="6"/>
     </row>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="str">
         <f>"#### "&amp;B46</f>
-        <v>#### A la table d'Antpone</v>
+        <v>#### Kebab</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1347,11 +1347,11 @@
         <v>2</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B48&amp;" - "&amp;B49</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Vendredi - Dimanche - 12h00-14h00</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-20h30</v>
       </c>
       <c r="O48" s="6"/>
     </row>
@@ -1360,11 +1360,11 @@
         <v>3</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E49" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B50</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Kebab</v>
       </c>
       <c r="O49" s="6"/>
     </row>
@@ -1373,11 +1373,11 @@
         <v>4</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E50" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B51</f>
-        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
+        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
       </c>
       <c r="O50" s="6"/>
     </row>
@@ -1386,11 +1386,11 @@
         <v>5</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E51" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B52&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/table-antoine/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/kebab/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O51" s="6"/>
     </row>
@@ -1399,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="O52" s="6"/>
     </row>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="str">
         <f>"#### "&amp;B55</f>
-        <v>#### Le Gazpacho</v>
+        <v>#### L'Ecuelle</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -1469,11 +1469,11 @@
         <v>2</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E57" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B57&amp;" - "&amp;B58</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mercredi - Dimanche - 12h00-14h00 &amp; 19h00-21h00</v>
       </c>
       <c r="O57" s="6"/>
     </row>
@@ -1482,11 +1482,11 @@
         <v>3</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B59</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Burger</v>
       </c>
       <c r="O58" s="6"/>
     </row>
@@ -1495,11 +1495,11 @@
         <v>4</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E59" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B60</f>
-        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
+        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
       </c>
       <c r="O59" s="6"/>
     </row>
@@ -1508,11 +1508,11 @@
         <v>5</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B61&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/gazpacho/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/ecuelle/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O60" s="6"/>
     </row>
@@ -1521,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="O61" s="6"/>
     </row>
@@ -1554,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="str">
         <f>"#### "&amp;B64</f>
-        <v>#### Le Festin de Babette</v>
+        <v>#### Le Bistrot</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -1591,11 +1591,11 @@
         <v>2</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E66" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B66&amp;" - "&amp;B67</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mercredi - Dimanche - 12h00-13h30 &amp; 19h00-21h00</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
       </c>
       <c r="O66" s="6"/>
     </row>
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E68" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B69</f>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E69" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B70&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/festin-babette/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/bistrot/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O69" s="6"/>
     </row>
@@ -1643,7 +1643,7 @@
         <v>11</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="O70" s="6"/>
     </row>
@@ -1676,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="str">
         <f>"#### "&amp;B73</f>
-        <v>#### L'Ozone</v>
+        <v>#### Le Capharnaüm</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -1700,11 +1700,11 @@
         <v>1</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E74" s="5" t="str">
         <f>"&lt;p style=""color:#"&amp;IF(B74="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B74="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
-        <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
+        <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
       <c r="O74" s="6"/>
     </row>
@@ -1713,11 +1713,11 @@
         <v>2</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E75" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B75&amp;" - "&amp;B76</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mardi - Dimanche - 12h00-13h30 &amp; 19h00-21h00 (Uniquement Jeu., Ven. et Sam.)</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
       </c>
       <c r="O75" s="6"/>
     </row>
@@ -1726,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E76" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B77</f>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E77" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B78</f>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="E78" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B79&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/ozone/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/capharnaum/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O78" s="6"/>
     </row>
@@ -1765,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O79" s="6"/>
     </row>
@@ -1793,140 +1793,18 @@
       <c r="N81" s="8"/>
       <c r="O81" s="9"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="str">
-        <f>"#### "&amp;B82</f>
-        <v>#### L'Auberge des Sens</v>
-      </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B83="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B83="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
-        <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="O83" s="6"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B84&amp;" - "&amp;B85</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mardi au Dimanche - 12h00-13h30 &amp; 19h00-20h30 (Sauf Dimanche Soir)</v>
-      </c>
-      <c r="O84" s="6"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E85" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B86</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
-      </c>
-      <c r="O85" s="6"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E86" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B87</f>
-        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
-      </c>
-      <c r="O86" s="6"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B88&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/auberge-sens/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
-      </c>
-      <c r="O87" s="6"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O88" s="6"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="E89" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O89" s="6"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="9"/>
-    </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="str">
         <f>"#### "&amp;B91</f>
-        <v>#### La Fringale</v>
+        <v>#### Le Festin de Babette</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -1944,11 +1822,11 @@
         <v>1</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E92" s="5" t="str">
         <f>"&lt;p style=""color:#"&amp;IF(B92="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B92="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
-        <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
+        <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
       <c r="O92" s="6"/>
     </row>
@@ -1957,11 +1835,11 @@
         <v>2</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E93" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B93&amp;" - "&amp;B94</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à definir - à définir</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mercredi - Dimanche - 12h00-13h30 &amp; 19h00-21h00</v>
       </c>
       <c r="O93" s="6"/>
     </row>
@@ -1970,11 +1848,11 @@
         <v>3</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E94" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B95</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Snack</v>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
       </c>
       <c r="O94" s="6"/>
     </row>
@@ -1983,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E95" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B96</f>
@@ -2000,7 +1878,7 @@
       </c>
       <c r="E96" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B97&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/fringale/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/festin-babette/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O96" s="6"/>
     </row>
@@ -2009,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O97" s="6"/>
     </row>
@@ -2042,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="str">
         <f>"#### "&amp;B100</f>
-        <v>#### Birdy Nem Nem</v>
+        <v>#### Le Gazpacho</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -2079,11 +1957,11 @@
         <v>2</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E102" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B102&amp;" - "&amp;B103</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mercredi - Dimanche - 12h00-14h00 &amp; 19h00-21h00</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
       </c>
       <c r="O102" s="6"/>
     </row>
@@ -2092,11 +1970,11 @@
         <v>3</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E103" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B104</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Asiatique</v>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
       </c>
       <c r="O103" s="6"/>
     </row>
@@ -2105,11 +1983,11 @@
         <v>4</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E104" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B105</f>
-        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
+        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
       </c>
       <c r="O104" s="6"/>
     </row>
@@ -2118,11 +1996,11 @@
         <v>5</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E105" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B106&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/birdy/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/gazpacho/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O105" s="6"/>
     </row>
@@ -2131,7 +2009,7 @@
         <v>11</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O106" s="6"/>
     </row>
@@ -2164,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="str">
         <f>"#### "&amp;B109</f>
-        <v>#### L'Ecuelle</v>
+        <v>#### Pizza Val</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -2201,11 +2079,11 @@
         <v>2</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E111" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B111&amp;" - "&amp;B112</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mercredi - Dimanche - 12h00-14h00 &amp; 19h00-21h00</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
       </c>
       <c r="O111" s="6"/>
     </row>
@@ -2214,11 +2092,11 @@
         <v>3</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E112" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B113</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Burger</v>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Pizza, Sandwichs</v>
       </c>
       <c r="O112" s="6"/>
     </row>
@@ -2227,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E113" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B114</f>
@@ -2244,7 +2122,7 @@
       </c>
       <c r="E114" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B115&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/ecuelle/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/pizza-val/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O114" s="6"/>
     </row>
@@ -2253,7 +2131,7 @@
         <v>11</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="O115" s="6"/>
     </row>
@@ -2286,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="str">
         <f>"#### "&amp;B118</f>
-        <v>#### L'Andalouse</v>
+        <v>#### Quercy Pizza</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -2310,11 +2188,11 @@
         <v>1</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E119" s="5" t="str">
         <f>"&lt;p style=""color:#"&amp;IF(B119="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B119="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
-        <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
+        <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
       <c r="O119" s="6"/>
     </row>
@@ -2323,11 +2201,11 @@
         <v>2</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E120" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B120&amp;" - "&amp;B121</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à définir - à définir</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
       </c>
       <c r="O120" s="6"/>
     </row>
@@ -2336,11 +2214,11 @@
         <v>3</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E121" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B122</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à définir</v>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Pizza</v>
       </c>
       <c r="O121" s="6"/>
     </row>
@@ -2349,7 +2227,7 @@
         <v>4</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E122" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B123</f>
@@ -2366,7 +2244,7 @@
       </c>
       <c r="E123" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B124&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/andalouse/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/quercy-pizza/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O123" s="6"/>
     </row>
@@ -2375,7 +2253,7 @@
         <v>11</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O124" s="6"/>
     </row>
@@ -2408,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2" t="str">
         <f>"#### "&amp;B127</f>
-        <v>#### Le Bistrot</v>
+        <v>#### L'Andalouse</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -2432,11 +2310,11 @@
         <v>1</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E128" s="5" t="str">
         <f>"&lt;p style=""color:#"&amp;IF(B128="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B128="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
-        <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
+        <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
       </c>
       <c r="O128" s="6"/>
     </row>
@@ -2445,11 +2323,11 @@
         <v>2</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E129" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B129&amp;" - "&amp;B130</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à définir - à définir</v>
       </c>
       <c r="O129" s="6"/>
     </row>
@@ -2458,11 +2336,11 @@
         <v>3</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E130" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B131</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à définir</v>
       </c>
       <c r="O130" s="6"/>
     </row>
@@ -2471,11 +2349,11 @@
         <v>4</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E131" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B132</f>
-        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
+        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
       </c>
       <c r="O131" s="6"/>
     </row>
@@ -2484,11 +2362,11 @@
         <v>5</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E132" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B133&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/bistrot/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/andalouse/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O132" s="6"/>
     </row>
@@ -2497,7 +2375,7 @@
         <v>11</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O133" s="6"/>
     </row>
@@ -2530,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2" t="str">
         <f>"#### "&amp;B136</f>
-        <v>#### Le Chien Fou</v>
+        <v>#### L'Auberge des Sens</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -2554,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E137" s="5" t="str">
         <f>"&lt;p style=""color:#"&amp;IF(B137="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B137="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
@@ -2567,11 +2445,11 @@
         <v>2</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E138" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B138&amp;" - "&amp;B139</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mardi au Dimanche - 12h00-13h30 &amp; 19h00-20h30 (Sauf Dimanche Soir)</v>
       </c>
       <c r="O138" s="6"/>
     </row>
@@ -2580,11 +2458,11 @@
         <v>3</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E139" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B140</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Creperie</v>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
       </c>
       <c r="O139" s="6"/>
     </row>
@@ -2593,7 +2471,7 @@
         <v>4</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E140" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B141</f>
@@ -2610,7 +2488,7 @@
       </c>
       <c r="E141" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B142&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/chien-fou/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/auberge-sens/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O141" s="6"/>
     </row>
@@ -2619,7 +2497,7 @@
         <v>11</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="O142" s="6"/>
     </row>
@@ -2652,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2" t="str">
         <f>"#### "&amp;B145</f>
-        <v>#### Guinguette de la Plage</v>
+        <v>#### L'Ozone</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -2676,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E146" s="5" t="str">
         <f>"&lt;p style=""color:#"&amp;IF(B146="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B146="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
@@ -2689,11 +2567,11 @@
         <v>2</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E147" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B147&amp;" - "&amp;B148</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00 (Sauf Dimanche soir)</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mardi - Dimanche - 12h00-13h30 &amp; 19h00-21h00 (Uniquement Jeu., Ven. et Sam.)</v>
       </c>
       <c r="O147" s="6"/>
     </row>
@@ -2702,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E148" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B149</f>
@@ -2715,7 +2593,7 @@
         <v>4</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E149" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B150</f>
@@ -2732,7 +2610,7 @@
       </c>
       <c r="E150" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B151&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/guinguette-plage/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/ozone/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O150" s="6"/>
     </row>
@@ -2741,7 +2619,7 @@
         <v>11</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="O151" s="6"/>
     </row>
@@ -2774,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2" t="str">
         <f>"#### "&amp;B154</f>
-        <v>#### Kebab</v>
+        <v>#### La Fringale</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -2798,11 +2676,11 @@
         <v>1</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E155" s="5" t="str">
         <f>"&lt;p style=""color:#"&amp;IF(B155="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B155="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
-        <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
+        <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
       </c>
       <c r="O155" s="6"/>
     </row>
@@ -2811,11 +2689,11 @@
         <v>2</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E156" s="5" t="str">
         <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B156&amp;" - "&amp;B157</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-20h30</v>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à definir - à définir</v>
       </c>
       <c r="O156" s="6"/>
     </row>
@@ -2824,11 +2702,11 @@
         <v>3</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E157" s="5" t="str">
         <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B158</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Kebab</v>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Snack</v>
       </c>
       <c r="O157" s="6"/>
     </row>
@@ -2837,11 +2715,11 @@
         <v>4</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E158" s="5" t="str">
         <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B159</f>
-        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
+        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
       </c>
       <c r="O158" s="6"/>
     </row>
@@ -2850,11 +2728,11 @@
         <v>5</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E159" s="5" t="str">
         <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B160&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/kebab/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/fringale/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
       <c r="O159" s="6"/>
     </row>
@@ -2863,7 +2741,7 @@
         <v>11</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="O160" s="6"/>
     </row>
@@ -2891,6 +2769,128 @@
       <c r="N162" s="8"/>
       <c r="O162" s="9"/>
     </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2" t="str">
+        <f>"#### "&amp;B163</f>
+        <v>#### Le Chien Fou</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="3"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(B164="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B164="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+        <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="O164" s="6"/>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B165&amp;" - "&amp;B166</f>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
+      </c>
+      <c r="O165" s="6"/>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B167</f>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Creperie</v>
+      </c>
+      <c r="O166" s="6"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E167" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B168</f>
+        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
+      </c>
+      <c r="O167" s="6"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E168" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B169&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/chien-fou/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+      </c>
+      <c r="O168" s="6"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O169" s="6"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170" s="4"/>
+      <c r="E170" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O170" s="6"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171" s="7"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="8"/>
+      <c r="N171" s="8"/>
+      <c r="O171" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ressources/index.xlsx
+++ b/ressources/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paolo\Documents\GitHub\Pas-olo.github.io\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C04CF8-8818-4EF2-B036-122A90A8D6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F017C2DB-C39C-4DE2-A004-56FB98020D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{B0D2FBFC-8627-46E3-9F6F-86CCE5A836D0}"/>
   </bookViews>
@@ -357,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -368,6 +368,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,33 +685,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F792FD2A-D997-4B9C-A94D-E19C0AFFAA1A}">
-  <dimension ref="A1:O171"/>
+  <dimension ref="A1:P162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="5"/>
-    <col min="4" max="4" width="11.5546875" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="5"/>
+    <col min="1" max="4" width="11.5546875" style="5"/>
+    <col min="5" max="5" width="11.5546875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="str">
+        <f>C1</f>
+        <v>A la table d'Antoine</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2" t="str">
-        <f>"#### "&amp;B1</f>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="str">
+        <f>"#### "&amp;C1</f>
         <v>#### A la table d'Antoine</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -717,92 +723,100 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B2="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B2="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F2" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C2="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C2="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B3&amp;" - "&amp;B4</f>
+      <c r="F3" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C3&amp;" - "&amp;C4</f>
         <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Vendredi - Dimanche - 12h00-14h00</v>
       </c>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B5</f>
+      <c r="F4" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C5</f>
         <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
       </c>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B6</f>
+      <c r="F5" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C6</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
       </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B7&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+      <c r="F6" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C7&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
         <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/table-antoine/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="4"/>
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -815,22 +829,26 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="str">
+        <f t="shared" ref="A10" si="0">C10</f>
+        <v>Beffroi Tentation</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="str">
-        <f>"#### "&amp;B10</f>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="str">
+        <f>"#### "&amp;C10</f>
         <v>#### Beffroi Tentation</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -839,92 +857,100 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B11="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B11="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F11" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C11="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C11="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B12&amp;" - "&amp;B13</f>
+      <c r="F12" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C12&amp;" - "&amp;C13</f>
         <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mardi au Dimanche - 12h00-13h30 &amp; 19h00-21h00</v>
       </c>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B14</f>
+      <c r="F13" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C14</f>
         <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Pizza, Cuisine traditionnelle</v>
       </c>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B15</f>
+      <c r="F14" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C15</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
       </c>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B16&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+      <c r="F15" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C16&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
         <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/pizza-val/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="E17" s="5" t="s">
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4"/>
+      <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -937,22 +963,26 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="str">
+        <f t="shared" ref="A19" si="1">C19</f>
+        <v>Birdy Nem Nem</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="str">
-        <f>"#### "&amp;B19</f>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="str">
+        <f>"#### "&amp;C19</f>
         <v>#### Birdy Nem Nem</v>
       </c>
-      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -961,92 +991,100 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B20="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B20="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F20" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C20="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C20="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B21&amp;" - "&amp;B22</f>
+      <c r="F21" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C21&amp;" - "&amp;C22</f>
         <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mercredi - Dimanche - 12h00-14h00 &amp; 19h00-21h00</v>
       </c>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B23</f>
+      <c r="F22" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C23</f>
         <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Asiatique</v>
       </c>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B24</f>
+      <c r="F23" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C24</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
       </c>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B25&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+      <c r="F24" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C25&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
         <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/birdy/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="E26" s="5" t="s">
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="4"/>
+      <c r="F26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1059,22 +1097,26 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="str">
+        <f t="shared" ref="A28" si="2">C28</f>
+        <v>Chez Féfé</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2" t="str">
-        <f>"#### "&amp;B28</f>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="str">
+        <f>"#### "&amp;C28</f>
         <v>#### Chez Féfé</v>
       </c>
-      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1083,92 +1125,100 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="O28" s="2"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B29="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B29="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F29" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C29="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C29="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B30&amp;" - "&amp;B31</f>
+      <c r="F30" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C30&amp;" - "&amp;C31</f>
         <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à definir - à définir</v>
       </c>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B32</f>
+      <c r="F31" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C32</f>
         <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
       </c>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B33</f>
+      <c r="F32" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C33</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
       </c>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B34&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+      <c r="F33" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C34&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
         <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/chez-fefe/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="6"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="E35" s="5" t="s">
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="4"/>
+      <c r="F35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1181,22 +1231,26 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="O36" s="8"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="str">
+        <f t="shared" ref="A37" si="3">C37</f>
+        <v>Guinguette de la Plage</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2" t="str">
-        <f>"#### "&amp;B37</f>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="str">
+        <f>"#### "&amp;C37</f>
         <v>#### Guinguette de la Plage</v>
       </c>
-      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1205,92 +1259,100 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="O37" s="2"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B38="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B38="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F38" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C38="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C38="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B39&amp;" - "&amp;B40</f>
+      <c r="F39" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C39&amp;" - "&amp;C40</f>
         <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00 (Sauf Dimanche soir)</v>
       </c>
-      <c r="O39" s="6"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B41</f>
+      <c r="F40" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C41</f>
         <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
       </c>
-      <c r="O40" s="6"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B42</f>
+      <c r="F41" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C42</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
       </c>
-      <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B43&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+      <c r="F42" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C43&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
         <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/guinguette-plage/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
-      <c r="O42" s="6"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="O43" s="6"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="E44" s="5" t="s">
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="4"/>
+      <c r="F44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O44" s="6"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -1303,22 +1365,26 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
-      <c r="O45" s="9"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="O45" s="8"/>
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="str">
+        <f t="shared" ref="A46" si="4">C46</f>
+        <v>Kebab</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2" t="str">
-        <f>"#### "&amp;B46</f>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="str">
+        <f>"#### "&amp;C46</f>
         <v>#### Kebab</v>
       </c>
-      <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -1327,92 +1393,100 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="O46" s="2"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B47="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B47="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F47" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C47="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C47="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O47" s="6"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B48&amp;" - "&amp;B49</f>
+      <c r="F48" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C48&amp;" - "&amp;C49</f>
         <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-20h30</v>
       </c>
-      <c r="O48" s="6"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B50</f>
+      <c r="F49" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C50</f>
         <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Kebab</v>
       </c>
-      <c r="O49" s="6"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B51</f>
+      <c r="F50" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C51</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
       </c>
-      <c r="O50" s="6"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B52&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+      <c r="F51" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C52&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
         <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/kebab/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
-      <c r="O51" s="6"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O52" s="6"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="E53" s="5" t="s">
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="4"/>
+      <c r="F53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O53" s="6"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -1425,22 +1499,26 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
-      <c r="O54" s="9"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="O54" s="8"/>
+      <c r="P54" s="9"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="str">
+        <f t="shared" ref="A55" si="5">C55</f>
+        <v>L'Ecuelle</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2" t="str">
-        <f>"#### "&amp;B55</f>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="str">
+        <f>"#### "&amp;C55</f>
         <v>#### L'Ecuelle</v>
       </c>
-      <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -1449,92 +1527,100 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="O55" s="2"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B56="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B56="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F56" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C56="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C56="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O56" s="6"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="P56" s="6"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B57&amp;" - "&amp;B58</f>
+      <c r="F57" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C57&amp;" - "&amp;C58</f>
         <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mercredi - Dimanche - 12h00-14h00 &amp; 19h00-21h00</v>
       </c>
-      <c r="O57" s="6"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B59</f>
+      <c r="F58" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C59</f>
         <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Burger</v>
       </c>
-      <c r="O58" s="6"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B60</f>
+      <c r="F59" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C60</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
       </c>
-      <c r="O59" s="6"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B61&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+      <c r="F60" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C61&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
         <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/ecuelle/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
-      <c r="O60" s="6"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O61" s="6"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="E62" s="5" t="s">
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="4"/>
+      <c r="F62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O62" s="6"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8"/>
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="7"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -1547,22 +1633,26 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="9"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="O63" s="8"/>
+      <c r="P63" s="9"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="str">
+        <f t="shared" ref="A64" si="6">C64</f>
+        <v>Le Bistrot</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2" t="str">
-        <f>"#### "&amp;B64</f>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="str">
+        <f>"#### "&amp;C64</f>
         <v>#### Le Bistrot</v>
       </c>
-      <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -1571,92 +1661,100 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="O64" s="2"/>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B65="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B65="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F65" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C65="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C65="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O65" s="6"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="10"/>
+      <c r="B66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B66&amp;" - "&amp;B67</f>
+      <c r="F66" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C66&amp;" - "&amp;C67</f>
         <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
       </c>
-      <c r="O66" s="6"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="10"/>
+      <c r="B67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B68</f>
+      <c r="F67" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C68</f>
         <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
       </c>
-      <c r="O67" s="6"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="10"/>
+      <c r="B68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B69</f>
+      <c r="F68" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C69</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
       </c>
-      <c r="O68" s="6"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E69" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B70&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+      <c r="F69" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C70&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
         <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/bistrot/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
-      <c r="O69" s="6"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="10"/>
+      <c r="B70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O70" s="6"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="E71" s="5" t="s">
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="10"/>
+      <c r="B71" s="4"/>
+      <c r="F71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O71" s="6"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="10"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -1669,22 +1767,26 @@
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
-      <c r="O72" s="9"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="O72" s="8"/>
+      <c r="P72" s="9"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="str">
+        <f t="shared" ref="A73" si="7">C73</f>
+        <v>Le Capharnaüm</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2" t="str">
-        <f>"#### "&amp;B73</f>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="str">
+        <f>"#### "&amp;C73</f>
         <v>#### Le Capharnaüm</v>
       </c>
-      <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -1693,92 +1795,100 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="O73" s="2"/>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="10"/>
+      <c r="B74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B74="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B74="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F74" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C74="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C74="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O74" s="6"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B75&amp;" - "&amp;B76</f>
+      <c r="F75" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C75&amp;" - "&amp;C76</f>
         <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
       </c>
-      <c r="O75" s="6"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="10"/>
+      <c r="B76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B77</f>
+      <c r="F76" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C77</f>
         <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
       </c>
-      <c r="O76" s="6"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="10"/>
+      <c r="B77" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E77" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B78</f>
+      <c r="F77" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C78</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
       </c>
-      <c r="O77" s="6"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="10"/>
+      <c r="B78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B79&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+      <c r="F78" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C79&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
         <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/capharnaum/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
       </c>
-      <c r="O78" s="6"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O79" s="6"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="E80" s="5" t="s">
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="10"/>
+      <c r="B80" s="4"/>
+      <c r="F80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O80" s="6"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="10"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -1791,22 +1901,160 @@
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
       <c r="N81" s="8"/>
-      <c r="O81" s="9"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="O81" s="8"/>
+      <c r="P81" s="9"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="str">
+        <f t="shared" ref="A82" si="8">C82</f>
+        <v>Le Festin de Babette</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="str">
+        <f>"#### "&amp;C82</f>
+        <v>#### Le Festin de Babette</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="10"/>
+      <c r="B83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C83="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C83="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+        <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="10"/>
+      <c r="B84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C84&amp;" - "&amp;C85</f>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mercredi - Dimanche - 12h00-13h30 &amp; 19h00-21h00</v>
+      </c>
+      <c r="P84" s="6"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85" s="10"/>
+      <c r="B85" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C86</f>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
+      </c>
+      <c r="P85" s="6"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="10"/>
+      <c r="B86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C87</f>
+        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
+      </c>
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A87" s="10"/>
+      <c r="B87" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C88&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/festin-babette/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+      </c>
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" s="10"/>
+      <c r="B88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P88" s="6"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" s="10"/>
+      <c r="B89" s="4"/>
+      <c r="F89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P89" s="6"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="10"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="9"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="str">
+        <f t="shared" ref="A91" si="9">C91</f>
+        <v>Le Gazpacho</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D91" s="2"/>
-      <c r="E91" s="2" t="str">
-        <f>"#### "&amp;B91</f>
-        <v>#### Le Festin de Babette</v>
-      </c>
-      <c r="F91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2" t="str">
+        <f>"#### "&amp;C91</f>
+        <v>#### Le Gazpacho</v>
+      </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -1815,92 +2063,100 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+      <c r="O91" s="2"/>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="10"/>
+      <c r="B92" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E92" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B92="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B92="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F92" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C92="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C92="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O92" s="6"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+      <c r="P92" s="6"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="10"/>
+      <c r="B93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E93" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B93&amp;" - "&amp;B94</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mercredi - Dimanche - 12h00-13h30 &amp; 19h00-21h00</v>
-      </c>
-      <c r="O93" s="6"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+      <c r="C93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C93&amp;" - "&amp;C94</f>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
+      </c>
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="10"/>
+      <c r="B94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B95</f>
+      <c r="F94" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C95</f>
         <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
       </c>
-      <c r="O94" s="6"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+      <c r="P94" s="6"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="10"/>
+      <c r="B95" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E95" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B96</f>
+      <c r="F95" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C96</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
       </c>
-      <c r="O95" s="6"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="P95" s="6"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="10"/>
+      <c r="B96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="C96" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E96" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B97&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/festin-babette/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
-      </c>
-      <c r="O96" s="6"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="F96" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C97&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/gazpacho/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+      </c>
+      <c r="P96" s="6"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" s="10"/>
+      <c r="B97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O97" s="6"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="E98" s="5" t="s">
+      <c r="C97" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P97" s="6"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" s="10"/>
+      <c r="B98" s="4"/>
+      <c r="F98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O98" s="6"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8"/>
+      <c r="P98" s="6"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99" s="10"/>
+      <c r="B99" s="7"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -1913,22 +2169,26 @@
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
-      <c r="O99" s="9"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="O99" s="8"/>
+      <c r="P99" s="9"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="str">
+        <f t="shared" ref="A100" si="10">C100</f>
+        <v>Pizza Val</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D100" s="2"/>
-      <c r="E100" s="2" t="str">
-        <f>"#### "&amp;B100</f>
-        <v>#### Le Gazpacho</v>
-      </c>
-      <c r="F100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2" t="str">
+        <f>"#### "&amp;C100</f>
+        <v>#### Pizza Val</v>
+      </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -1937,92 +2197,100 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+      <c r="O100" s="2"/>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" s="10"/>
+      <c r="B101" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B101="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B101="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F101" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C101="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C101="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O101" s="6"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+      <c r="P101" s="6"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="10"/>
+      <c r="B102" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B102&amp;" - "&amp;B103</f>
+      <c r="F102" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C102&amp;" - "&amp;C103</f>
         <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
       </c>
-      <c r="O102" s="6"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="10"/>
+      <c r="B103" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B104</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
-      </c>
-      <c r="O103" s="6"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+      <c r="F103" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C104</f>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Pizza, Sandwichs</v>
+      </c>
+      <c r="P103" s="6"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" s="10"/>
+      <c r="B104" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E104" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B105</f>
-        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
-      </c>
-      <c r="O104" s="6"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+      <c r="C104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C105</f>
+        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
+      </c>
+      <c r="P104" s="6"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="10"/>
+      <c r="B105" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B106&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/gazpacho/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
-      </c>
-      <c r="O105" s="6"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+      <c r="C105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C106&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/pizza-val/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+      </c>
+      <c r="P105" s="6"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" s="10"/>
+      <c r="B106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O106" s="6"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="E107" s="5" t="s">
+      <c r="C106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P106" s="6"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107" s="10"/>
+      <c r="B107" s="4"/>
+      <c r="F107" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O107" s="6"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8"/>
+      <c r="P107" s="6"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108" s="10"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -2035,22 +2303,26 @@
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
       <c r="N108" s="8"/>
-      <c r="O108" s="9"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="O108" s="8"/>
+      <c r="P108" s="9"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="str">
+        <f t="shared" ref="A109" si="11">C109</f>
+        <v>Quercy Pizza</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="2" t="str">
-        <f>"#### "&amp;B109</f>
-        <v>#### Pizza Val</v>
-      </c>
-      <c r="F109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2" t="str">
+        <f>"#### "&amp;C109</f>
+        <v>#### Quercy Pizza</v>
+      </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -2059,92 +2331,100 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
-      <c r="O109" s="3"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+      <c r="O109" s="2"/>
+      <c r="P109" s="3"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A110" s="10"/>
+      <c r="B110" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B110="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B110="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F110" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C110="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C110="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O110" s="6"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+      <c r="P110" s="6"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A111" s="10"/>
+      <c r="B111" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B111&amp;" - "&amp;B112</f>
+      <c r="F111" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C111&amp;" - "&amp;C112</f>
         <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
       </c>
-      <c r="O111" s="6"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
+      <c r="P111" s="6"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A112" s="10"/>
+      <c r="B112" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="C112" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B113</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Pizza, Sandwichs</v>
-      </c>
-      <c r="O112" s="6"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
+      <c r="F112" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C113</f>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Pizza</v>
+      </c>
+      <c r="P112" s="6"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" s="10"/>
+      <c r="B113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B114</f>
+      <c r="C113" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C114</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
       </c>
-      <c r="O113" s="6"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
+      <c r="P113" s="6"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" s="10"/>
+      <c r="B114" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="C114" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B115&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/pizza-val/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
-      </c>
-      <c r="O114" s="6"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
+      <c r="F114" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C115&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/quercy-pizza/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+      </c>
+      <c r="P114" s="6"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" s="10"/>
+      <c r="B115" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O115" s="6"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
-      <c r="E116" s="5" t="s">
+      <c r="C115" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P115" s="6"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A116" s="10"/>
+      <c r="B116" s="4"/>
+      <c r="F116" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O116" s="6"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A117" s="7"/>
-      <c r="B117" s="8"/>
+      <c r="P116" s="6"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117" s="10"/>
+      <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -2157,22 +2437,26 @@
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
       <c r="N117" s="8"/>
-      <c r="O117" s="9"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="O117" s="8"/>
+      <c r="P117" s="9"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="str">
+        <f t="shared" ref="A118" si="12">C118</f>
+        <v>L'Andalouse</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C118" s="2"/>
+      <c r="C118" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D118" s="2"/>
-      <c r="E118" s="2" t="str">
-        <f>"#### "&amp;B118</f>
-        <v>#### Quercy Pizza</v>
-      </c>
-      <c r="F118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2" t="str">
+        <f>"#### "&amp;C118</f>
+        <v>#### L'Andalouse</v>
+      </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -2181,92 +2465,100 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
-      <c r="O118" s="3"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
+      <c r="O118" s="2"/>
+      <c r="P118" s="3"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" s="10"/>
+      <c r="B119" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B119="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B119="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
-        <v>&lt;p style="color:#167700;"&gt;&lt;b&gt;Fonctionne Normalement&lt;/b&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="O119" s="6"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
+      <c r="C119" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C119="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C119="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+        <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="P119" s="6"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" s="10"/>
+      <c r="B120" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B120&amp;" - "&amp;B121</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
-      </c>
-      <c r="O120" s="6"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
+      <c r="C120" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C120&amp;" - "&amp;C121</f>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à définir - à définir</v>
+      </c>
+      <c r="P120" s="6"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121" s="10"/>
+      <c r="B121" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B122</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Pizza</v>
-      </c>
-      <c r="O121" s="6"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
+      <c r="C121" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C122</f>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à définir</v>
+      </c>
+      <c r="P121" s="6"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122" s="10"/>
+      <c r="B122" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B123</f>
+      <c r="C122" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C123</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
       </c>
-      <c r="O122" s="6"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
+      <c r="P122" s="6"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123" s="10"/>
+      <c r="B123" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="C123" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B124&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/quercy-pizza/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
-      </c>
-      <c r="O123" s="6"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
+      <c r="F123" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C124&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/andalouse/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+      </c>
+      <c r="P123" s="6"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124" s="10"/>
+      <c r="B124" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O124" s="6"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="E125" s="5" t="s">
+      <c r="C124" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P124" s="6"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A125" s="10"/>
+      <c r="B125" s="4"/>
+      <c r="F125" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O125" s="6"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A126" s="7"/>
-      <c r="B126" s="8"/>
+      <c r="P125" s="6"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A126" s="10"/>
+      <c r="B126" s="7"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -2279,22 +2571,26 @@
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
-      <c r="O126" s="9"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="O126" s="8"/>
+      <c r="P126" s="9"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="str">
+        <f t="shared" ref="A127" si="13">C127</f>
+        <v>L'Auberge des Sens</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C127" s="2"/>
+      <c r="C127" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="2" t="str">
-        <f>"#### "&amp;B127</f>
-        <v>#### L'Andalouse</v>
-      </c>
-      <c r="F127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2" t="str">
+        <f>"#### "&amp;C127</f>
+        <v>#### L'Auberge des Sens</v>
+      </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -2303,92 +2599,100 @@
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
-      <c r="O127" s="3"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
+      <c r="O127" s="2"/>
+      <c r="P127" s="3"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A128" s="10"/>
+      <c r="B128" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E128" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B128="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B128="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F128" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C128="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C128="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O128" s="6"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
+      <c r="P128" s="6"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A129" s="10"/>
+      <c r="B129" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E129" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B129&amp;" - "&amp;B130</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à définir - à définir</v>
-      </c>
-      <c r="O129" s="6"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
+      <c r="C129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C129&amp;" - "&amp;C130</f>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mardi au Dimanche - 12h00-13h30 &amp; 19h00-20h30 (Sauf Dimanche Soir)</v>
+      </c>
+      <c r="P129" s="6"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130" s="10"/>
+      <c r="B130" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E130" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B131</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à définir</v>
-      </c>
-      <c r="O130" s="6"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
+      <c r="C130" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C131</f>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
+      </c>
+      <c r="P130" s="6"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A131" s="10"/>
+      <c r="B131" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E131" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B132</f>
-        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place &amp; à emporter</v>
-      </c>
-      <c r="O131" s="6"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
+      <c r="C131" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C132</f>
+        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
+      </c>
+      <c r="P131" s="6"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A132" s="10"/>
+      <c r="B132" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B133&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/andalouse/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
-      </c>
-      <c r="O132" s="6"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
+      <c r="C132" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C133&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/auberge-sens/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+      </c>
+      <c r="P132" s="6"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133" s="10"/>
+      <c r="B133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O133" s="6"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
-      <c r="E134" s="5" t="s">
+      <c r="C133" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P133" s="6"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" s="10"/>
+      <c r="B134" s="4"/>
+      <c r="F134" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O134" s="6"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A135" s="7"/>
-      <c r="B135" s="8"/>
+      <c r="P134" s="6"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" s="10"/>
+      <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -2401,22 +2705,26 @@
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
       <c r="N135" s="8"/>
-      <c r="O135" s="9"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="O135" s="8"/>
+      <c r="P135" s="9"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="str">
+        <f t="shared" ref="A136" si="14">C136</f>
+        <v>L'Ozone</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C136" s="2"/>
+      <c r="C136" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D136" s="2"/>
-      <c r="E136" s="2" t="str">
-        <f>"#### "&amp;B136</f>
-        <v>#### L'Auberge des Sens</v>
-      </c>
-      <c r="F136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2" t="str">
+        <f>"#### "&amp;C136</f>
+        <v>#### L'Ozone</v>
+      </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -2425,92 +2733,100 @@
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
-      <c r="O136" s="3"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
+      <c r="O136" s="2"/>
+      <c r="P136" s="3"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137" s="10"/>
+      <c r="B137" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="C137" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E137" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B137="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B137="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F137" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C137="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C137="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O137" s="6"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
+      <c r="P137" s="6"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" s="10"/>
+      <c r="B138" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B138&amp;" - "&amp;B139</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mardi au Dimanche - 12h00-13h30 &amp; 19h00-20h30 (Sauf Dimanche Soir)</v>
-      </c>
-      <c r="O138" s="6"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
+      <c r="C138" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C138&amp;" - "&amp;C139</f>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mardi - Dimanche - 12h00-13h30 &amp; 19h00-21h00 (Uniquement Jeu., Ven. et Sam.)</v>
+      </c>
+      <c r="P138" s="6"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A139" s="10"/>
+      <c r="B139" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E139" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B140</f>
+      <c r="C139" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F139" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C140</f>
         <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
       </c>
-      <c r="O139" s="6"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
+      <c r="P139" s="6"/>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A140" s="10"/>
+      <c r="B140" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="C140" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E140" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B141</f>
+      <c r="F140" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C141</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
       </c>
-      <c r="O140" s="6"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
+      <c r="P140" s="6"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A141" s="10"/>
+      <c r="B141" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="C141" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E141" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B142&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/auberge-sens/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
-      </c>
-      <c r="O141" s="6"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
+      <c r="F141" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C142&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/ozone/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+      </c>
+      <c r="P141" s="6"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A142" s="10"/>
+      <c r="B142" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O142" s="6"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
-      <c r="E143" s="5" t="s">
+      <c r="C142" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P142" s="6"/>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A143" s="10"/>
+      <c r="B143" s="4"/>
+      <c r="F143" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O143" s="6"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A144" s="7"/>
-      <c r="B144" s="8"/>
+      <c r="P143" s="6"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" s="10"/>
+      <c r="B144" s="7"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -2523,22 +2839,26 @@
       <c r="L144" s="8"/>
       <c r="M144" s="8"/>
       <c r="N144" s="8"/>
-      <c r="O144" s="9"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="O144" s="8"/>
+      <c r="P144" s="9"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="str">
+        <f t="shared" ref="A145" si="15">C145</f>
+        <v>La Fringale</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D145" s="2"/>
-      <c r="E145" s="2" t="str">
-        <f>"#### "&amp;B145</f>
-        <v>#### L'Ozone</v>
-      </c>
-      <c r="F145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2" t="str">
+        <f>"#### "&amp;C145</f>
+        <v>#### La Fringale</v>
+      </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -2547,92 +2867,100 @@
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
-      <c r="O145" s="3"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
+      <c r="O145" s="2"/>
+      <c r="P145" s="3"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A146" s="10"/>
+      <c r="B146" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="C146" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E146" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B146="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B146="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F146" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C146="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C146="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O146" s="6"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
+      <c r="P146" s="6"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A147" s="10"/>
+      <c r="B147" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E147" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B147&amp;" - "&amp;B148</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Mardi - Dimanche - 12h00-13h30 &amp; 19h00-21h00 (Uniquement Jeu., Ven. et Sam.)</v>
-      </c>
-      <c r="O147" s="6"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
+      <c r="C147" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C147&amp;" - "&amp;C148</f>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à definir - à définir</v>
+      </c>
+      <c r="P147" s="6"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A148" s="10"/>
+      <c r="B148" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E148" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B149</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Cuisine traditionnelle</v>
-      </c>
-      <c r="O148" s="6"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
+      <c r="C148" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C149</f>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Snack</v>
+      </c>
+      <c r="P148" s="6"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149" s="10"/>
+      <c r="B149" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B149" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E149" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B150</f>
+      <c r="C149" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F149" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C150</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
       </c>
-      <c r="O149" s="6"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
+      <c r="P149" s="6"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A150" s="10"/>
+      <c r="B150" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="C150" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E150" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B151&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/ozone/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
-      </c>
-      <c r="O150" s="6"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
+      <c r="F150" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C151&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/fringale/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+      </c>
+      <c r="P150" s="6"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A151" s="10"/>
+      <c r="B151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B151" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O151" s="6"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A152" s="4"/>
-      <c r="E152" s="5" t="s">
+      <c r="C151" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P151" s="6"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A152" s="10"/>
+      <c r="B152" s="4"/>
+      <c r="F152" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O152" s="6"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A153" s="7"/>
-      <c r="B153" s="8"/>
+      <c r="P152" s="6"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A153" s="10"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
@@ -2645,22 +2973,26 @@
       <c r="L153" s="8"/>
       <c r="M153" s="8"/>
       <c r="N153" s="8"/>
-      <c r="O153" s="9"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="O153" s="8"/>
+      <c r="P153" s="9"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154" s="10" t="str">
+        <f t="shared" ref="A154" si="16">C154</f>
+        <v>Le Chien Fou</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C154" s="2"/>
+      <c r="C154" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="D154" s="2"/>
-      <c r="E154" s="2" t="str">
-        <f>"#### "&amp;B154</f>
-        <v>#### La Fringale</v>
-      </c>
-      <c r="F154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2" t="str">
+        <f>"#### "&amp;C154</f>
+        <v>#### Le Chien Fou</v>
+      </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -2669,92 +3001,100 @@
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
-      <c r="O154" s="3"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
+      <c r="O154" s="2"/>
+      <c r="P154" s="3"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A155" s="10"/>
+      <c r="B155" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="C155" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E155" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B155="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B155="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
+      <c r="F155" s="5" t="str">
+        <f>"&lt;p style=""color:#"&amp;IF(C155="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(C155="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
         <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
       </c>
-      <c r="O155" s="6"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
+      <c r="P155" s="6"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A156" s="10"/>
+      <c r="B156" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B156" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E156" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B156&amp;" - "&amp;B157</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;à definir - à définir</v>
-      </c>
-      <c r="O156" s="6"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
+      <c r="C156" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" s="5" t="str">
+        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C156&amp;" - "&amp;C157</f>
+        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
+      </c>
+      <c r="P156" s="6"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A157" s="10"/>
+      <c r="B157" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B157" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E157" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B158</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Snack</v>
-      </c>
-      <c r="O157" s="6"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
+      <c r="C157" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="5" t="str">
+        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C158</f>
+        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Creperie</v>
+      </c>
+      <c r="P157" s="6"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158" s="10"/>
+      <c r="B158" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B158" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E158" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B159</f>
+      <c r="C158" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F158" s="5" t="str">
+        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;C159</f>
         <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
       </c>
-      <c r="O158" s="6"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
+      <c r="P158" s="6"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A159" s="10"/>
+      <c r="B159" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="C159" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E159" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B160&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/fringale/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
-      </c>
-      <c r="O159" s="6"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
+      <c r="F159" s="5" t="str">
+        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;C160&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
+        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/chien-fou/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
+      </c>
+      <c r="P159" s="6"/>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A160" s="10"/>
+      <c r="B160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O160" s="6"/>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A161" s="4"/>
-      <c r="E161" s="5" t="s">
+      <c r="C160" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P160" s="6"/>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A161" s="10"/>
+      <c r="B161" s="4"/>
+      <c r="F161" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O161" s="6"/>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A162" s="7"/>
-      <c r="B162" s="8"/>
+      <c r="P161" s="6"/>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A162" s="10"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
@@ -2767,131 +3107,30 @@
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
       <c r="N162" s="8"/>
-      <c r="O162" s="9"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2" t="str">
-        <f>"#### "&amp;B163</f>
-        <v>#### Le Chien Fou</v>
-      </c>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="3"/>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E164" s="5" t="str">
-        <f>"&lt;p style=""color:#"&amp;IF(B164="Oui","167700","8B0000")&amp;(";""&gt;&lt;b&gt;"&amp;IF(B164="Oui","Fonctionne Normalement","Fermé")&amp;"&lt;/b&gt;&lt;/p&gt;")</f>
-        <v>&lt;p style="color:#8B0000;"&gt;&lt;b&gt;Fermé&lt;/b&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="O164" s="6"/>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" s="5" t="str">
-        <f>"&lt;i class=""fa-solid fa-clock""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B165&amp;" - "&amp;B166</f>
-        <v>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;7j/7 - 12h00-13h30 &amp; 19h00-21h00</v>
-      </c>
-      <c r="O165" s="6"/>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A166" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166" s="5" t="str">
-        <f>"&lt;br&gt;  &lt;i class=""fa-solid fa-utensils""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B167</f>
-        <v>&lt;br&gt;  &lt;i class="fa-solid fa-utensils"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Creperie</v>
-      </c>
-      <c r="O166" s="6"/>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E167" s="5" t="str">
-        <f>"&lt;br&gt; &lt;i class=""fa-solid fa-bell-concierge""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;"&amp;B168</f>
-        <v>&lt;br&gt; &lt;i class="fa-solid fa-bell-concierge"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;Sur place</v>
-      </c>
-      <c r="O167" s="6"/>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E168" s="5" t="str">
-        <f>"&lt;br&gt; &lt;a href=""https://manger-saint-antonin.ga/"&amp;B169&amp;"/"" target=""_blank""&gt;&lt;i class=""fa-solid fa-link""&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;"</f>
-        <v>&lt;br&gt; &lt;a href="https://manger-saint-antonin.ga/chien-fou/" target="_blank"&gt;&lt;i class="fa-solid fa-link"&gt;&lt;/i&gt;&amp;nbsp;&amp;nbsp;*+ d'info*&lt;/a&gt;</v>
-      </c>
-      <c r="O168" s="6"/>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O169" s="6"/>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A170" s="4"/>
-      <c r="E170" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O170" s="6"/>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A171" s="7"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
-      <c r="M171" s="8"/>
-      <c r="N171" s="8"/>
-      <c r="O171" s="9"/>
+      <c r="O162" s="8"/>
+      <c r="P162" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A154:A162"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="A118:A126"/>
+    <mergeCell ref="A127:A135"/>
+    <mergeCell ref="A136:A144"/>
+    <mergeCell ref="A145:A153"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="A73:A81"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A46:A54"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ressources/index.xlsx
+++ b/ressources/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paolo\Documents\GitHub\Pas-olo.github.io\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F017C2DB-C39C-4DE2-A004-56FB98020D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443814DB-A5C5-4CB3-8B28-9F99FBFC2F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{B0D2FBFC-8627-46E3-9F6F-86CCE5A836D0}"/>
   </bookViews>
@@ -265,12 +265,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -359,16 +374,16 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -688,7 +703,7 @@
   <dimension ref="A1:P162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
